--- a/data/raw/comptages_terrain/plage/us_med_pnmcca_observatoire_comptage_terrain_plage_2020-07-29.xlsx
+++ b/data/raw/comptages_terrain/plage/us_med_pnmcca_observatoire_comptage_terrain_plage_2020-07-29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="3" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1265,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
